--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>DOB:=01/01/1991</t>
+  </si>
+  <si>
+    <t>UL</t>
   </si>
 </sst>
 </file>
@@ -525,10 +528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Scenario1"/>
-  <dimension ref="A1:DN8"/>
+  <dimension ref="A1:DN9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -831,6 +834,17 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:118">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
